--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints8.000000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints8.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>8.887550443600932e-06</v>
+        <v>8.926168711106978e-06</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>8.874863654798412e-06</v>
+        <v>8.915717313936263e-06</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>8.850265983826246e-06</v>
+        <v>8.891173223784361e-06</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>8.814720536653223e-06</v>
+        <v>8.853750547259146e-06</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>8.769190419248037e-06</v>
+        <v>8.804663390968393e-06</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>8.714638737579409e-06</v>
+        <v>8.745125861519905e-06</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>8.652028597615974e-06</v>
+        <v>8.676352065521399e-06</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>8.582323105326621e-06</v>
+        <v>8.599556109580855e-06</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>8.506485366679988e-06</v>
+        <v>8.515952100305994e-06</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>8.425478487644692e-06</v>
+        <v>8.426754144304502e-06</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>8.340265574189669e-06</v>
+        <v>8.333176348184417e-06</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>8.25180973228353e-06</v>
+        <v>8.23643281855343e-06</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>8.161074067894882e-06</v>
+        <v>8.137737662019215e-06</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>8.069021686992683e-06</v>
+        <v>8.03830498518984e-06</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>7.976615695545537e-06</v>
+        <v>7.939348894672974e-06</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>7.884819199522166e-06</v>
+        <v>7.842083497076427e-06</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>7.794595304891172e-06</v>
+        <v>7.74772289900788e-06</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>7.706907117621517e-06</v>
+        <v>7.65748120707539e-06</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>7.622696126643583e-06</v>
+        <v>7.572537943012689e-06</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>7.542469107883281e-06</v>
+        <v>7.493377135752508e-06</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>7.46633023846315e-06</v>
+        <v>7.419838700601695e-06</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>7.394368513168558e-06</v>
+        <v>7.351738262804439e-06</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>7.326672926784983e-06</v>
+        <v>7.288891447605028e-06</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>7.263332474097822e-06</v>
+        <v>7.231113880247686e-06</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>7.204436149892711e-06</v>
+        <v>7.17822118597685e-06</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>7.150072948955044e-06</v>
+        <v>7.13002899003674e-06</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>7.100331866070234e-06</v>
+        <v>7.08635291767159e-06</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>7.055301896023886e-06</v>
+        <v>7.047008594125807e-06</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>7.01507203360141e-06</v>
+        <v>7.011811644643624e-06</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>6.979731273588281e-06</v>
+        <v>6.980577694469331e-06</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>6.949368610769937e-06</v>
+        <v>6.953122368847188e-06</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>6.924073039931932e-06</v>
+        <v>6.929261293021558e-06</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>6.903933555859699e-06</v>
+        <v>6.908810092236694e-06</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>6.889039153338702e-06</v>
+        <v>6.89158439173687e-06</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>6.879349654950981e-06</v>
+        <v>6.877334888627365e-06</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>6.873960367378145e-06</v>
+        <v>6.865377732896524e-06</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>6.871611781391646e-06</v>
+        <v>6.854850727054416e-06</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>6.87104330595344e-06</v>
+        <v>6.844891129841843e-06</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>6.870994350025479e-06</v>
+        <v>6.834636199999575e-06</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>6.870204322569712e-06</v>
+        <v>6.823223196268392e-06</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>6.867412632548088e-06</v>
+        <v>6.809789377389054e-06</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>6.861358688922567e-06</v>
+        <v>6.79347200210238e-06</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>6.850781900655096e-06</v>
+        <v>6.773408329149129e-06</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>6.834421676707607e-06</v>
+        <v>6.748735617270055e-06</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>6.811017426042092e-06</v>
+        <v>6.718591125205996e-06</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>6.779308557620485e-06</v>
+        <v>6.682112111697707e-06</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>6.738034480404743e-06</v>
+        <v>6.638435835485969e-06</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>6.685934603356737e-06</v>
+        <v>6.586699555311489e-06</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>6.621748335438561e-06</v>
+        <v>6.526040529915183e-06</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>6.544325706437225e-06</v>
+        <v>6.455663810278731e-06</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>6.453938885492194e-06</v>
+        <v>6.375645983223082e-06</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>6.351846644167209e-06</v>
+        <v>6.286668259420236e-06</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>6.239327600081346e-06</v>
+        <v>6.189424011886425e-06</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>6.117660370853629e-06</v>
+        <v>6.084606613637845e-06</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>5.988123574103559e-06</v>
+        <v>5.972909437691102e-06</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>5.851995827450174e-06</v>
+        <v>5.855025857062403e-06</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>5.710555748512654e-06</v>
+        <v>5.731649244768075e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>5.565081954909995e-06</v>
+        <v>5.603472973824285e-06</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>5.416853064261766e-06</v>
+        <v>5.471190417247703e-06</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>5.267147694186963e-06</v>
+        <v>5.335494948054501e-06</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>5.117244462304576e-06</v>
+        <v>5.197079939260824e-06</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>4.968398883026934e-06</v>
+        <v>5.056631676447694e-06</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>4.821298281618825e-06</v>
+        <v>4.914662140217502e-06</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>4.676040555876951e-06</v>
+        <v>4.771502490855347e-06</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>4.532696250933016e-06</v>
+        <v>4.627475497592445e-06</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>4.391335911919284e-06</v>
+        <v>4.482903929660573e-06</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>4.252030083967456e-06</v>
+        <v>4.338110556290951e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>4.114849312209246e-06</v>
+        <v>4.193418146714788e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>3.9798641417769e-06</v>
+        <v>4.04914947016387e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>3.84714511780213e-06</v>
+        <v>3.905627295869411e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>3.716762785416658e-06</v>
+        <v>3.76317439306263e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>3.588787689752713e-06</v>
+        <v>3.622113530975301e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>3.463290375942014e-06</v>
+        <v>3.48276747883864e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>3.340341389116451e-06</v>
+        <v>3.345459005884054e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>3.220011274407757e-06</v>
+        <v>3.210510881342766e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>3.10237057694814e-06</v>
+        <v>3.078245874446539e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>2.987489841869329e-06</v>
+        <v>2.948986754426593e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>2.87543961430307e-06</v>
+        <v>2.823056290514174e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>2.766290439381547e-06</v>
+        <v>2.700777251941012e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>2.6601128622365e-06</v>
+        <v>2.582472407938344e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>2.556977427999821e-06</v>
+        <v>2.468464527737574e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>2.456954681803269e-06</v>
+        <v>2.359076380569965e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>2.360115168778999e-06</v>
+        <v>2.254630735667208e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>2.266529434058766e-06</v>
+        <v>2.155450362260559e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>2.176268022774345e-06</v>
+        <v>2.061858029581304e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>2.089401480057863e-06</v>
+        <v>1.974176506861092e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>2.006000351041089e-06</v>
+        <v>1.892728563331198e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>1.926221086608455e-06</v>
+        <v>1.81781615407594e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>1.85066668800899e-06</v>
+        <v>1.749633039271782e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>1.780084798366479e-06</v>
+        <v>1.688337933744461e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>1.715223135013025e-06</v>
+        <v>1.634089534339398e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>1.656829415280761e-06</v>
+        <v>1.58704653790205e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>1.605651356502048e-06</v>
+        <v>1.547367641278057e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>1.56243667600901e-06</v>
+        <v>1.515211541312866e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>1.527933091133811e-06</v>
+        <v>1.490736934851965e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>1.50288831920875e-06</v>
+        <v>1.474102518740933e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>1.488050077565981e-06</v>
+        <v>1.465466989825248e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>1.484166083537709e-06</v>
+        <v>1.464989044950424e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>1.491984054456157e-06</v>
+        <v>1.472827380961993e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>1.512251707653512e-06</v>
+        <v>1.489140694705447e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>8.546052447479666e-06</v>
+        <v>8.46437323307805e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>1.147527283228245e-05</v>
+        <v>1.145248935419125e-05</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>1.104071040929131e-05</v>
+        <v>1.091540934829009e-05</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>1.094986207250303e-05</v>
+        <v>1.09012621342669e-05</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>1.095592110666156e-05</v>
+        <v>1.101772795208293e-05</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>1.090811836370501e-05</v>
+        <v>1.097980718705992e-05</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>1.182721088735269e-05</v>
+        <v>1.18116583474168e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>1.551657834131067e-05</v>
+        <v>1.541203147672899e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>2.128449065229433e-05</v>
+        <v>2.119945692396878e-05</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>2.365758750554969e-05</v>
+        <v>2.374239708646769e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>2.476469776063512e-05</v>
+        <v>2.494918709074639e-05</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>2.577718400287285e-05</v>
+        <v>2.585006627272848e-05</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>2.528585498067892e-05</v>
+        <v>2.507264091020344e-05</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>2.373067431553287e-05</v>
+        <v>2.348548361160036e-05</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>2.254507596940854e-05</v>
+        <v>2.295154451421298e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>2.203922963795762e-05</v>
+        <v>2.288884734796774e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>2.210809171658953e-05</v>
+        <v>2.251425754834039e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>2.261874643076583e-05</v>
+        <v>2.285472017208119e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>2.219999694386918e-05</v>
+        <v>2.226597995183191e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>2.12719125553227e-05</v>
+        <v>2.111579336721788e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>2.064117631209446e-05</v>
+        <v>2.061297877109447e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>1.987176230489757e-05</v>
+        <v>1.989789576882244e-05</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>1.909840825678213e-05</v>
+        <v>1.914265488209058e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>1.848538705595824e-05</v>
+        <v>1.859686688236063e-05</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>1.798019905074934e-05</v>
+        <v>1.816448183954967e-05</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>1.750686104656218e-05</v>
+        <v>1.771200348501449e-05</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>1.699069336252181e-05</v>
+        <v>1.711582424240497e-05</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>1.637031638746251e-05</v>
+        <v>1.635323328468597e-05</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>1.559212601744946e-05</v>
+        <v>1.54605061977465e-05</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>1.460456442384066e-05</v>
+        <v>1.447457070607532e-05</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>1.343181349189461e-05</v>
+        <v>1.342886828970811e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>1.219643916876223e-05</v>
+        <v>1.235231188120588e-05</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>1.10275821208695e-05</v>
+        <v>1.127351178354066e-05</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>1.004040420719554e-05</v>
+        <v>1.022869542185751e-05</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>9.257878703529228e-06</v>
+        <v>9.304324241908174e-06</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>8.665568055643844e-06</v>
+        <v>8.606769710572745e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>8.237447153863508e-06</v>
+        <v>8.176341653573545e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>7.923795463847143e-06</v>
+        <v>7.916896542534211e-06</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>7.673164747557513e-06</v>
+        <v>7.718316846699456e-06</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>7.45784757866549e-06</v>
+        <v>7.527592121267343e-06</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>7.271909750081877e-06</v>
+        <v>7.344086082771637e-06</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>7.110222894882501e-06</v>
+        <v>7.169100847499747e-06</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>6.967658646143398e-06</v>
+        <v>7.003938531739318e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>6.839088636940389e-06</v>
+        <v>6.849901251777761e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>6.719572273537798e-06</v>
+        <v>6.708193720152591e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>6.60674852759092e-06</v>
+        <v>6.578682549193972e-06</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>6.500130661544286e-06</v>
+        <v>6.460262098734918e-06</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>6.399274129984525e-06</v>
+        <v>6.351804842241472e-06</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>6.303734387498286e-06</v>
+        <v>6.252183253179696e-06</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>6.21306688867234e-06</v>
+        <v>6.160269805015785e-06</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>6.126827088093332e-06</v>
+        <v>6.074936971215798e-06</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>6.044570440347948e-06</v>
+        <v>5.995057225245841e-06</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>5.965852400022839e-06</v>
+        <v>5.919503040571986e-06</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>5.890284625836934e-06</v>
+        <v>5.847292648470509e-06</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>5.817757211806111e-06</v>
+        <v>5.778166364477038e-06</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>5.748246316562824e-06</v>
+        <v>5.712087701062291e-06</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>5.681728123935571e-06</v>
+        <v>5.649020236039357e-06</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>5.618178817752762e-06</v>
+        <v>5.588927547221243e-06</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>5.557574581842829e-06</v>
+        <v>5.531773212420983e-06</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>5.499891600034188e-06</v>
+        <v>5.477520809451586e-06</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>5.445106056155325e-06</v>
+        <v>5.426133916126135e-06</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>5.393194134034652e-06</v>
+        <v>5.377576110257643e-06</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>5.344132017500584e-06</v>
+        <v>5.331810969659118e-06</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>5.297895890381604e-06</v>
+        <v>5.288802072143641e-06</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>5.254461936506125e-06</v>
+        <v>5.248512995524223e-06</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>5.213806339702585e-06</v>
+        <v>5.210907317613897e-06</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>5.175905283799405e-06</v>
+        <v>5.175948616225683e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>5.140734952625054e-06</v>
+        <v>5.143600469172647e-06</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>5.108271530007957e-06</v>
+        <v>5.113826454267809e-06</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>5.078491199776531e-06</v>
+        <v>5.086590149324187e-06</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>5.051370145759246e-06</v>
+        <v>5.061855132154844e-06</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>5.026884551784522e-06</v>
+        <v>5.039584980572799e-06</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>5.005010601680797e-06</v>
+        <v>5.019743272391088e-06</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>4.985724479276499e-06</v>
+        <v>5.002293585422734e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>4.969002368400085e-06</v>
+        <v>4.987199497480792e-06</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>4.954820452879983e-06</v>
+        <v>4.974424586378287e-06</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>4.943154916544624e-06</v>
+        <v>4.963932429928245e-06</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>4.933981943222453e-06</v>
+        <v>4.955686605943714e-06</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>4.927277716741907e-06</v>
+        <v>4.949650692237722e-06</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>4.92301842093142e-06</v>
+        <v>4.945788266623301e-06</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>4.921180239619429e-06</v>
+        <v>4.944062906913488e-06</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>4.921739356634373e-06</v>
+        <v>4.944438190921317e-06</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>4.924671955804689e-06</v>
+        <v>4.946877696459822e-06</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>4.929954220958813e-06</v>
+        <v>4.951345001342037e-06</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>4.937562335925186e-06</v>
+        <v>4.957803683380998e-06</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>4.947472484532238e-06</v>
+        <v>4.966217320389736e-06</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>4.959660850608412e-06</v>
+        <v>4.976549490181287e-06</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>4.974103605800963e-06</v>
+        <v>4.988763762111287e-06</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>4.990733397931407e-06</v>
+        <v>5.002793486923898e-06</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>5.009341594955195e-06</v>
+        <v>5.018473924689756e-06</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>5.02969094870744e-06</v>
+        <v>5.035620467294486e-06</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>5.05154421102323e-06</v>
+        <v>5.054048506623686e-06</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>5.074664133737675e-06</v>
+        <v>5.073573434562982e-06</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>5.098813468685882e-06</v>
+        <v>5.09401064299799e-06</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>5.123754967702967e-06</v>
+        <v>5.115175523814335e-06</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>5.14925138262401e-06</v>
+        <v>5.136883468897613e-06</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>5.175065465284128e-06</v>
+        <v>5.158949870133453e-06</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>5.200959967518425e-06</v>
+        <v>5.181190119407467e-06</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>5.226697641162018e-06</v>
+        <v>5.203419608605282e-06</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>5.252041238049985e-06</v>
+        <v>5.225453729612497e-06</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>5.276753510017444e-06</v>
+        <v>5.247107874314733e-06</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>5.300597208899512e-06</v>
+        <v>5.26819743459762e-06</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>5.323335086531267e-06</v>
+        <v>5.288537802346753e-06</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>5.34472989474783e-06</v>
+        <v>5.307944369447758e-06</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>5.3645443853843e-06</v>
+        <v>5.32623252778625e-06</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>5.382541310275794e-06</v>
+        <v>5.343217669247854e-06</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>5.398483421257396e-06</v>
+        <v>5.35871518571817e-06</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>5.412133470164223e-06</v>
+        <v>5.372540469082821e-06</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>5.423254208831381e-06</v>
+        <v>5.384508911227431e-06</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>5.431608389093962e-06</v>
+        <v>5.394435904037603e-06</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>5.436958762787082e-06</v>
+        <v>5.402136839398958e-06</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>5.439068081745839e-06</v>
+        <v>5.407427109197113e-06</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>5.437699097805342e-06</v>
+        <v>5.410122105317687e-06</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>5.432614562800692e-06</v>
+        <v>5.410037219646289e-06</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>5.423614243871251e-06</v>
+        <v>5.406998777051009e-06</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>5.410695676078081e-06</v>
+        <v>5.400891515893057e-06</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>5.393922173333413e-06</v>
+        <v>5.391619603227833e-06</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>5.373357093847723e-06</v>
+        <v>5.379087219194839e-06</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>5.349063795831483e-06</v>
+        <v>5.363198543933569e-06</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>5.321105637495158e-06</v>
+        <v>5.343857757583517e-06</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>5.289545977049253e-06</v>
+        <v>5.320969040284199e-06</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>5.254448172704227e-06</v>
+        <v>5.294436572175105e-06</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>5.215875582670543e-06</v>
+        <v>5.264164533395723e-06</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>5.173891565158707e-06</v>
+        <v>5.230057104085574e-06</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>5.128559478379186e-06</v>
+        <v>5.192018464384152e-06</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>5.079942680542452e-06</v>
+        <v>5.149952794430951e-06</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>5.028104529858957e-06</v>
+        <v>5.103764274365451e-06</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>4.973108384539224e-06</v>
+        <v>5.053357084327191e-06</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>4.915017602793712e-06</v>
+        <v>4.998635404455655e-06</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>4.853895542832863e-06</v>
+        <v>4.939503414890311e-06</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>4.789805562867212e-06</v>
+        <v>4.875865295770712e-06</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>4.722791316848555e-06</v>
+        <v>4.807631093217364e-06</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>4.652687148291926e-06</v>
+        <v>4.734773165314585e-06</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>4.579201184897305e-06</v>
+        <v>4.657301444743588e-06</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>4.502039813870416e-06</v>
+        <v>4.575226382332914e-06</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>4.420909422416884e-06</v>
+        <v>4.488558428910998e-06</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>4.335516397742367e-06</v>
+        <v>4.397308035306311e-06</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>4.245567127052481e-06</v>
+        <v>4.301485652347278e-06</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>4.150767997552963e-06</v>
+        <v>4.201101730862455e-06</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>4.050825396449433e-06</v>
+        <v>4.096166721680271e-06</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>3.945445710947498e-06</v>
+        <v>3.986691075629147e-06</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>3.834335328252911e-06</v>
+        <v>3.872685243537649e-06</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>3.717200635571285e-06</v>
+        <v>3.754159676234201e-06</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>3.593748020108217e-06</v>
+        <v>3.631124824547216e-06</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>3.463856542454796e-06</v>
+        <v>3.503737064429268e-06</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>3.329520450055086e-06</v>
+        <v>3.373940302107017e-06</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>3.194151652290694e-06</v>
+        <v>3.244876500436617e-06</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>3.061188186967594e-06</v>
+        <v>3.119709703231043e-06</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>2.934068091891937e-06</v>
+        <v>3.001603954303432e-06</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>2.816229404869695e-06</v>
+        <v>2.893723297466752e-06</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>2.711110163706899e-06</v>
+        <v>2.79923177653403e-06</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>2.622148406209543e-06</v>
+        <v>2.721293435318258e-06</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>2.552782170183741e-06</v>
+        <v>2.663072317632536e-06</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>2.50644949343548e-06</v>
+        <v>2.62773246728985e-06</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>2.486588413770788e-06</v>
+        <v>2.618437928103226e-06</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>2.496636968995717e-06</v>
+        <v>2.6383527438857e-06</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>2.540033196916282e-06</v>
+        <v>2.690640958450288e-06</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>2.619916804130827e-06</v>
+        <v>2.778166782161196e-06</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>2.735183270457511e-06</v>
+        <v>2.899528826879081e-06</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>2.881569699059282e-06</v>
+        <v>3.050151423863706e-06</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>3.054737993965403e-06</v>
+        <v>3.225383326577344e-06</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>3.250350059205189e-06</v>
+        <v>3.420573288482317e-06</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>3.464067798807682e-06</v>
+        <v>3.631070063040678e-06</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>3.691553116802187e-06</v>
+        <v>3.852222403714738e-06</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>3.928467917217924e-06</v>
+        <v>4.079379063966727e-06</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>4.170474104084224e-06</v>
+        <v>4.307888797258978e-06</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>4.413233581430087e-06</v>
+        <v>4.533100357053509e-06</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>4.652408253284844e-06</v>
+        <v>4.750362496812654e-06</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>4.883660023677816e-06</v>
+        <v>4.955023969998731e-06</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>5.102650796638012e-06</v>
+        <v>5.142433530073783e-06</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>5.305042476194763e-06</v>
+        <v>5.307939930500135e-06</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>5.486765517902492e-06</v>
+        <v>5.447911234673143e-06</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>5.647508305922695e-06</v>
+        <v>5.572979040534284e-06</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>5.789724433773136e-06</v>
+        <v>5.704270531041989e-06</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>5.915971315475521e-06</v>
+        <v>5.863152517238342e-06</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>6.050106783022479e-06</v>
+        <v>6.06895613586952e-06</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>6.271380934997572e-06</v>
+        <v>6.335270496792331e-06</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>6.600987268592791e-06</v>
+        <v>6.650274175931263e-06</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>6.950418919570774e-06</v>
+        <v>6.962146325706525e-06</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>7.232110966058454e-06</v>
+        <v>7.220686823113841e-06</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>7.421929454633983e-06</v>
+        <v>7.40616098588821e-06</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>7.518346184367126e-06</v>
+        <v>7.509691513099495e-06</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>7.519860676054066e-06</v>
+        <v>7.522414418364549e-06</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>7.426139995663574e-06</v>
+        <v>7.436864512841597e-06</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>7.259873722348359e-06</v>
+        <v>7.273159124918019e-06</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>7.064827540730681e-06</v>
+        <v>7.076666173027215e-06</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>6.885544446641844e-06</v>
+        <v>6.893684846643451e-06</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>6.766567435913401e-06</v>
+        <v>6.770514335241251e-06</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>6.752439504376641e-06</v>
+        <v>6.753453828294864e-06</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>6.88770364786294e-06</v>
+        <v>6.888802515278636e-06</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>7.216902862203871e-06</v>
+        <v>7.222859585667101e-06</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>7.784580143230532e-06</v>
+        <v>7.801924228934325e-06</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>8.607056440633951e-06</v>
+        <v>8.642528523138601e-06</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>9.372951008491784e-06</v>
+        <v>9.415562248255429e-06</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>9.664693691374699e-06</v>
+        <v>9.679266397735568e-06</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>9.582447086783879e-06</v>
+        <v>9.53475429198092e-06</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>9.384470247074385e-06</v>
+        <v>9.249312306802224e-06</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>9.207345981030568e-06</v>
+        <v>8.977278091940276e-06</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>9.032585587672343e-06</v>
+        <v>8.72903326797258e-06</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>8.831638161881782e-06</v>
+        <v>8.505618507197333e-06</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>8.575956705855583e-06</v>
+        <v>8.308075187320953e-06</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>8.257623319320059e-06</v>
+        <v>8.141168966736192e-06</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>7.937503142197878e-06</v>
+        <v>8.02208327188234e-06</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>7.690779569251062e-06</v>
+        <v>7.970586479891856e-06</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>7.592635995241646e-06</v>
+        <v>8.006446967897252e-06</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>7.709529208907263e-06</v>
+        <v>8.145323515789628e-06</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>7.990560011350047e-06</v>
+        <v>8.347608761997258e-06</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>8.300805552309763e-06</v>
+        <v>8.534126311480349e-06</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>8.503517007622303e-06</v>
+        <v>8.624839868190904e-06</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>8.491098366507894e-06</v>
+        <v>8.55689115799664e-06</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>8.281116193467285e-06</v>
+        <v>8.341172780577908e-06</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>7.924720002308511e-06</v>
+        <v>8.00836577358132e-06</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>7.473059717509988e-06</v>
+        <v>7.589151416637043e-06</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>6.977285248519858e-06</v>
+        <v>7.114211023962596e-06</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>6.486913718538038e-06</v>
+        <v>6.617983224048072e-06</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>6.045337133041926e-06</v>
+        <v>6.149001565813513e-06</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>5.694511488226852e-06</v>
+        <v>5.759104095735954e-06</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>5.476392780288372e-06</v>
+        <v>5.500128860292644e-06</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>5.429911770528686e-06</v>
+        <v>5.420477090446533e-06</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>5.546504510261265e-06</v>
+        <v>5.51459369248172e-06</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>5.779871303832899e-06</v>
+        <v>5.734053909601526e-06</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>6.082671439854974e-06</v>
+        <v>6.029250339973018e-06</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>6.407564206938432e-06</v>
+        <v>6.350575581762838e-06</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>6.707208893694638e-06</v>
+        <v>6.648422233138036e-06</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>6.934264788734826e-06</v>
+        <v>6.873182892265539e-06</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>7.041391180670251e-06</v>
+        <v>6.975250157312284e-06</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>6.981449773215994e-06</v>
+        <v>6.905230631379751e-06</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>6.733667839802553e-06</v>
+        <v>6.641606120130095e-06</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>6.32951835816062e-06</v>
+        <v>6.218095604299413e-06</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>5.806624719645327e-06</v>
+        <v>5.674920637011337e-06</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>5.202610315611278e-06</v>
+        <v>5.052302771388948e-06</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>4.555098537413226e-06</v>
+        <v>4.39046356055548e-06</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>3.901712776405637e-06</v>
+        <v>3.729624557633884e-06</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>3.280076423943867e-06</v>
+        <v>3.110007315748004e-06</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>2.727812871382373e-06</v>
+        <v>2.571833388020775e-06</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>2.282466620534981e-06</v>
+        <v>2.155235628320722e-06</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>1.965269041191434e-06</v>
+        <v>1.882005262004204e-06</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>1.761254765079141e-06</v>
+        <v>1.733235804024374e-06</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>1.650591617342245e-06</v>
+        <v>1.684548787727224e-06</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>1.613447423124883e-06</v>
+        <v>1.711565746458773e-06</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>1.629990007571224e-06</v>
+        <v>1.789908213564983e-06</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>1.680387195825375e-06</v>
+        <v>1.895197722391842e-06</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>1.744806813031508e-06</v>
+        <v>2.00305580628539e-06</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>1.8034166843337e-06</v>
+        <v>2.089103998591514e-06</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>1.83757416396218e-06</v>
+        <v>2.130463782935259e-06</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>1.846728258320612e-06</v>
+        <v>2.127069518257695e-06</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>1.844406236807853e-06</v>
+        <v>2.096607709920619e-06</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>1.844506357319788e-06</v>
+        <v>2.057232665465851e-06</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>1.860926877752292e-06</v>
+        <v>2.027098692435171e-06</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>1.90756605600127e-06</v>
+        <v>2.024360098370374e-06</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>1.998322149962563e-06</v>
+        <v>2.067171190813259e-06</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>2.14709341753206e-06</v>
+        <v>2.173686277305606e-06</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>2.367778116605635e-06</v>
+        <v>2.362059665389201e-06</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>2.669077871434417e-06</v>
+        <v>2.644178246576482e-06</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>3.038263054271751e-06</v>
+        <v>3.006081684832041e-06</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>3.457080077181772e-06</v>
+        <v>3.4271474549029e-06</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>3.907275346573589e-06</v>
+        <v>3.886753024715852e-06</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>4.370595268856519e-06</v>
+        <v>4.364275862197909e-06</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>4.828786250439249e-06</v>
+        <v>4.839093435275424e-06</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>5.263594697731095e-06</v>
+        <v>5.290583211875409e-06</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>5.65676701714133e-06</v>
+        <v>5.698122659924829e-06</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>5.990224227997687e-06</v>
+        <v>6.041269230041026e-06</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>6.278636403878717e-06</v>
+        <v>6.333336540160968e-06</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>6.607748277976372e-06</v>
+        <v>6.660898586482285e-06</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>7.072619994196699e-06</v>
+        <v>7.120131247452645e-06</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>7.768311696446134e-06</v>
+        <v>7.807210401520105e-06</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>8.789883528630981e-06</v>
+        <v>8.818311927132587e-06</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>1.02323956346583e-05</v>
+        <v>1.024961170273877e-05</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>1.219090815843314e-05</v>
+        <v>1.219728560678532e-05</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>1.476048124386234e-05</v>
+        <v>1.475750951772072e-05</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>1.803411854266667e-05</v>
+        <v>1.802439574888648e-05</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>2.198962195961364e-05</v>
+        <v>2.19764586517748e-05</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>2.643078599715974e-05</v>
+        <v>2.641760670960038e-05</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>3.114695681425104e-05</v>
+        <v>3.113725036968808e-05</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>3.592748056983411e-05</v>
+        <v>3.592480007936323e-05</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>4.056170342284901e-05</v>
+        <v>4.056966628594464e-05</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>4.48389715322423e-05</v>
+        <v>4.486125943675766e-05</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>4.854863105695993e-05</v>
+        <v>4.858898997912701e-05</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>5.148002815594294e-05</v>
+        <v>5.154226836037246e-05</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>5.346367589591298e-05</v>
+        <v>5.355151878658465e-05</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>5.454553842544466e-05</v>
+        <v>5.466181502522299e-05</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>5.484182682399572e-05</v>
+        <v>5.498821644220338e-05</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>5.446879083025097e-05</v>
+        <v>5.464582091884884e-05</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>5.354268018289588e-05</v>
+        <v>5.374972633648303e-05</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>5.217974462061552e-05</v>
+        <v>5.241503057642925e-05</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>5.049623388209416e-05</v>
+        <v>5.075683152001e-05</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>4.860839770601851e-05</v>
+        <v>4.889022704855013e-05</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>4.663248427064077e-05</v>
+        <v>4.693031350684472e-05</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>4.46638266922289e-05</v>
+        <v>4.497159258025644e-05</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>4.272441054854912e-05</v>
+        <v>4.303634204313211e-05</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>4.082015170360071e-05</v>
+        <v>4.113101613162125e-05</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>3.89569660213838e-05</v>
+        <v>3.926206908187428e-05</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>3.714076936589775e-05</v>
+        <v>3.743595513004079e-05</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>3.537747760114435e-05</v>
+        <v>3.565912851227283e-05</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>3.367300659112292e-05</v>
+        <v>3.393804346471997e-05</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>3.203327219983361e-05</v>
+        <v>3.227915422353265e-05</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>3.046419029127587e-05</v>
+        <v>3.068891502486056e-05</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>2.89716767294513e-05</v>
+        <v>2.917378010485555e-05</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>2.756164737835929e-05</v>
+        <v>2.774020369966727e-05</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>2.624001810199944e-05</v>
+        <v>2.639464004544558e-05</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>2.501270476437309e-05</v>
+        <v>2.514354337834209e-05</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>2.388562322947977e-05</v>
+        <v>2.399336793450657e-05</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>2.28646893613192e-05</v>
+        <v>2.295056795008901e-05</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>2.195581902389247e-05</v>
+        <v>2.202159766124074e-05</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>2.116492808119923e-05</v>
+        <v>2.121291130411169e-05</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>2.049659030647181e-05</v>
+        <v>2.052955201951512e-05</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>1.994641399121431e-05</v>
+        <v>1.996713649979659e-05</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>1.950633400677837e-05</v>
+        <v>1.951741914559025e-05</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>1.916827412663382e-05</v>
+        <v>1.917214268904282e-05</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>1.892415812425073e-05</v>
+        <v>1.892304986230129e-05</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>1.876590977309915e-05</v>
+        <v>1.876188339751261e-05</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>1.868545284664931e-05</v>
+        <v>1.868038602682392e-05</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>1.867471111837121e-05</v>
+        <v>1.86703004823821e-05</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>1.872560836173497e-05</v>
+        <v>1.87233694963342e-05</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>1.883006835021062e-05</v>
+        <v>1.883133580082717e-05</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>1.898001485726829e-05</v>
+        <v>1.898594212800801e-05</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>1.916737165637814e-05</v>
+        <v>1.91789312100238e-05</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>1.93840625210101e-05</v>
+        <v>1.940204577902137e-05</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>1.962201122463432e-05</v>
+        <v>1.96470285671478e-05</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>1.987314154072102e-05</v>
+        <v>1.990562230655019e-05</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>2.012937724273994e-05</v>
+        <v>2.016956972937518e-05</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>2.038264210416163e-05</v>
+        <v>2.043061356777025e-05</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>2.062485989845593e-05</v>
+        <v>2.068049655388213e-05</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>2.084795439909274e-05</v>
+        <v>2.091096141985763e-05</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>2.104384937954255e-05</v>
+        <v>2.111375089784414e-05</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>2.120446861327509e-05</v>
+        <v>2.12806077199883e-05</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>2.132173587376074e-05</v>
+        <v>2.140327461843739e-05</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>2.138757493446941e-05</v>
+        <v>2.147349432533824e-05</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>2.139390956887122e-05</v>
+        <v>2.148300957283785e-05</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>2.133266355043626e-05</v>
+        <v>2.142356309308324e-05</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>2.119576065263456e-05</v>
+        <v>2.128689761822134e-05</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>2.097591125134764e-05</v>
+        <v>2.106555966798482e-05</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>2.067499697944354e-05</v>
+        <v>2.076146738670849e-05</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>2.03008292575982e-05</v>
+        <v>2.038259825665509e-05</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>1.986131891511178e-05</v>
+        <v>1.993703134052611e-05</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>1.936437678128322e-05</v>
+        <v>1.943284570102182e-05</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>1.881791368541267e-05</v>
+        <v>1.887812040084364e-05</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>1.822984045680041e-05</v>
+        <v>1.828093450269323e-05</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>1.760806792474511e-05</v>
+        <v>1.764936706927054e-05</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>1.696050691854706e-05</v>
+        <v>1.699149716327718e-05</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>1.629506826750659e-05</v>
+        <v>1.631540384741484e-05</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>1.561966280092225e-05</v>
+        <v>1.562916618438334e-05</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>1.4942201348095e-05</v>
+        <v>1.494086323688499e-05</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>1.427059473832336e-05</v>
+        <v>1.425857406761961e-05</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>1.361275380090768e-05</v>
+        <v>1.359037773928888e-05</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>1.297658936514829e-05</v>
+        <v>1.294435331459445e-05</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>1.237001226034377e-05</v>
+        <v>1.232857985623621e-05</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>1.180093331579446e-05</v>
+        <v>1.175113642691583e-05</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>1.12771110974313e-05</v>
+        <v>1.121994641890615e-05</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>1.080190481567241e-05</v>
+        <v>1.07384354285762e-05</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>1.037370925669565e-05</v>
+        <v>1.030495354363291e-05</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>9.990653411995586e-06</v>
+        <v>9.917579109653191e-06</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>9.650866273065766e-06</v>
+        <v>9.574390472212935e-06</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>9.352476831401041e-06</v>
+        <v>9.273465976889342e-06</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>9.093614078495123e-06</v>
+        <v>9.012883969258463e-06</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>8.872407005842538e-06</v>
+        <v>8.79072279489717e-06</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>8.686984604937676e-06</v>
+        <v>8.605060799382201e-06</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>8.535475867274448e-06</v>
+        <v>8.453976328289809e-06</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>8.416009784347275e-06</v>
+        <v>8.335547727196761e-06</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>8.326715347650466e-06</v>
+        <v>8.247853341679709e-06</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>8.265721548678101e-06</v>
+        <v>8.188971517315082e-06</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>8.231157378924516e-06</v>
+        <v>8.156980599679559e-06</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>8.221151829883948e-06</v>
+        <v>8.14995893434972e-06</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>8.233833893050625e-06</v>
+        <v>8.165984866902139e-06</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>8.267332559918803e-06</v>
+        <v>8.203136742913417e-06</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>8.319776821982668e-06</v>
+        <v>8.259492907960084e-06</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>8.389295670736559e-06</v>
+        <v>8.333131707618827e-06</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>8.474018097674593e-06</v>
+        <v>8.422131487466103e-06</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>8.572073094291166e-06</v>
+        <v>8.524570593078657e-06</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>8.681589652080445e-06</v>
+        <v>8.638527370033002e-06</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>8.800696762536565e-06</v>
+        <v>8.762080163905609e-06</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>8.927523417153979e-06</v>
+        <v>8.893307320273289e-06</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>9.060198607426826e-06</v>
+        <v>9.030287184712517e-06</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>9.19685132484922e-06</v>
+        <v>9.171098102799751e-06</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>9.335610560915653e-06</v>
+        <v>9.313818420111833e-06</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>9.474605307120243e-06</v>
+        <v>9.456526482225223e-06</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>9.611964554957104e-06</v>
+        <v>9.597300634716381e-06</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>9.745817295920729e-06</v>
+        <v>9.734219223162146e-06</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>9.874292521505232e-06</v>
+        <v>9.865360593138971e-06</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>9.995519223204747e-06</v>
+        <v>9.988803090223341e-06</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>1.010762639251374e-05</v>
+        <v>1.010262505999207e-05</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>1.020874302092625e-05</v>
+        <v>1.020490484802153e-05</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>1.02969980999367e-05</v>
+        <v>1.02937207998885e-05</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>1.037089264333284e-05</v>
+        <v>1.036752897059302e-05</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>1.043461136547142e-05</v>
+        <v>1.043055600281909e-05</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>1.049677500292594e-05</v>
+        <v>1.049153237523902e-05</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>1.056612196399551e-05</v>
+        <v>1.055930803710637e-05</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>1.065139065697925e-05</v>
+        <v>1.064273293767471e-05</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>1.076131949017649e-05</v>
+        <v>1.075065702619781e-05</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>1.090464687188634e-05</v>
+        <v>1.089193025192926e-05</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>1.109011121040782e-05</v>
+        <v>1.107540256412249e-05</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>1.132645091404043e-05</v>
+        <v>1.130992391203148e-05</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>1.162240439108293e-05</v>
+        <v>1.160434424490942e-05</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>1.198671004983503e-05</v>
+        <v>1.196751351201048e-05</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>1.242810629859568e-05</v>
+        <v>1.240828166258805e-05</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>1.295533154566355e-05</v>
+        <v>1.293549864589526e-05</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>1.357712419933878e-05</v>
+        <v>1.35580144111867e-05</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>1.430222266792012e-05</v>
+        <v>1.428467890771556e-05</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>1.513936535970594e-05</v>
+        <v>1.512434208473467e-05</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>1.609729068299696e-05</v>
+        <v>1.608585389149918e-05</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>1.718473704609165e-05</v>
+        <v>1.717806427726204e-05</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>1.841044285728802e-05</v>
+        <v>1.840982319127568e-05</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>1.978314652488748e-05</v>
+        <v>1.978998058279598e-05</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>2.131158645718817e-05</v>
+        <v>2.132738640107552e-05</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>2.300450106248768e-05</v>
+        <v>2.303089059536634e-05</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>2.48662223658658e-05</v>
+        <v>2.490490442219844e-05</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>2.685369574029499e-05</v>
+        <v>2.690610502660218e-05</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>2.889502329311016e-05</v>
+        <v>2.896211479669364e-05</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>3.091789843500501e-05</v>
+        <v>3.100014442720747e-05</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>3.2850014576666e-05</v>
+        <v>3.294740461287107e-05</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>3.461906512878665e-05</v>
+        <v>3.473110604841886e-05</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>3.615274350205516e-05</v>
+        <v>3.627845942857999e-05</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>3.737874310716051e-05</v>
+        <v>3.751667544808437e-05</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>3.8224757354795e-05</v>
+        <v>3.837296480166522e-05</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>3.86184796556473e-05</v>
+        <v>3.877453818405215e-05</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>3.848760342040778e-05</v>
+        <v>3.864860628997645e-05</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>3.775982205976624e-05</v>
+        <v>3.792237981416886e-05</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>3.636282898441252e-05</v>
+        <v>3.652306945136012e-05</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>3.424964691928587e-05</v>
+        <v>3.440332792197898e-05</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>3.154740694912006e-05</v>
+        <v>3.169069106095527e-05</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>2.845643248341186e-05</v>
+        <v>2.858621272226887e-05</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>2.517730021807594e-05</v>
+        <v>2.529120117340212e-05</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>2.191058684903537e-05</v>
+        <v>2.200696468184577e-05</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>1.885686907221317e-05</v>
+        <v>1.893481151509054e-05</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>1.621672358352407e-05</v>
+        <v>1.627604994061883e-05</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>1.419072707889137e-05</v>
+        <v>1.423198822592163e-05</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>1.297945625423614e-05</v>
+        <v>1.300393463848771e-05</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>1.273734188318326e-05</v>
+        <v>1.274692621162017e-05</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>1.340807897769718e-05</v>
+        <v>1.340469195195658e-05</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>1.487524002107552e-05</v>
+        <v>1.48606750713048e-05</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>1.702239295974305e-05</v>
+        <v>1.699831423227968e-05</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>1.973310574011818e-05</v>
+        <v>1.970104809748975e-05</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>2.289094630862794e-05</v>
+        <v>2.285231532955212e-05</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>2.637948261169217e-05</v>
+        <v>2.633555459107673e-05</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>3.008228259572951e-05</v>
+        <v>3.003420454467232e-05</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>3.388291420716879e-05</v>
+        <v>3.383170385295782e-05</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>3.766494539242878e-05</v>
+        <v>3.761149117854209e-05</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>4.131194409792835e-05</v>
+        <v>4.125700518403411e-05</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>4.470747827009622e-05</v>
+        <v>4.465168453205269e-05</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>4.773511585535105e-05</v>
+        <v>4.767896788520657e-05</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>5.027842480011288e-05</v>
+        <v>5.022229390610592e-05</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>5.22209730508084e-05</v>
+        <v>5.216510125736749e-05</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>5.344632855385718e-05</v>
+        <v>5.339082860160098e-05</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>5.383805925568126e-05</v>
+        <v>5.378291460141851e-05</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>5.330384438859094e-05</v>
+        <v>5.324892985452191e-05</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>5.191300700559699e-05</v>
+        <v>5.185822721306748e-05</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>4.980131360204172e-05</v>
+        <v>4.974665987452326e-05</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>4.710473493385516e-05</v>
+        <v>4.705028547187633e-05</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>4.39592417569759e-05</v>
+        <v>4.390516163812236e-05</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>4.050080482733209e-05</v>
+        <v>4.044734600624654e-05</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>3.686539490086038e-05</v>
+        <v>3.681289620924256e-05</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>3.318898273349798e-05</v>
+        <v>3.313786988010471e-05</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>2.960753908117216e-05</v>
+        <v>2.95583246518173e-05</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>2.625703469982017e-05</v>
+        <v>2.621031815737464e-05</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>2.327335389780536e-05</v>
+        <v>2.322982146151032e-05</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>2.074449825198895e-05</v>
+        <v>2.070485604983713e-05</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>1.863115515658856e-05</v>
+        <v>1.859595148588317e-05</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>1.687308623565141e-05</v>
+        <v>1.684268234917772e-05</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>1.541005311322022e-05</v>
+        <v>1.538462321924548e-05</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>1.41818174133435e-05</v>
+        <v>1.416134867561704e-05</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>1.312814076006493e-05</v>
+        <v>1.311243329781806e-05</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>1.218897683801053e-05</v>
+        <v>1.217764441244689e-05</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>1.132335992084405e-05</v>
+        <v>1.13158981356986e-05</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>1.052533212588549e-05</v>
+        <v>1.052124355744563e-05</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>9.792685745375151e-06</v>
+        <v>9.791493346890019e-06</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>9.123213071553062e-06</v>
+        <v>9.124460173233548e-06</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>8.514706396657491e-06</v>
+        <v>8.517956705676242e-06</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>7.964958012928534e-06</v>
+        <v>7.969795613419943e-06</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>7.471760212606084e-06</v>
+        <v>7.477789565666301e-06</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>7.032905287928716e-06</v>
+        <v>7.039751231615641e-06</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>6.646185531136369e-06</v>
+        <v>6.653493280469654e-06</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>6.30939323446879e-06</v>
+        <v>6.316828381429844e-06</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>6.020320690164845e-06</v>
+        <v>6.027569203696824e-06</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>5.776760190464324e-06</v>
+        <v>5.783528416472136e-06</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>5.57650402760686e-06</v>
+        <v>5.582518688957167e-06</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>5.417344493831557e-06</v>
+        <v>5.422352690352772e-06</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>5.297073881378177e-06</v>
+        <v>5.300843089860469e-06</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>5.213484482485969e-06</v>
+        <v>5.215802556681255e-06</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>5.16436858939453e-06</v>
+        <v>5.165043760016478e-06</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>5.147518494343328e-06</v>
+        <v>5.146379369067363e-06</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>5.160726489571799e-06</v>
+        <v>5.157622053035097e-06</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>5.201784867319443e-06</v>
+        <v>5.196584481120928e-06</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>5.268485919825655e-06</v>
+        <v>5.261079322526009e-06</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>5.358621939330025e-06</v>
+        <v>5.348919246451676e-06</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>5.469985218071973e-06</v>
+        <v>5.457916922099106e-06</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>5.600368048290838e-06</v>
+        <v>5.585885018669391e-06</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>5.747562722226329e-06</v>
+        <v>5.730636205363988e-06</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>5.909361532117644e-06</v>
+        <v>5.889983151383852e-06</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>6.083556770204555e-06</v>
+        <v>6.061738525930502e-06</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>6.267940728726383e-06</v>
+        <v>6.243714998205011e-06</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>6.46030569992242e-06</v>
+        <v>6.43372523740843e-06</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>6.658443976032485e-06</v>
+        <v>6.629581912742322e-06</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>6.86014784929587e-06</v>
+        <v>6.829097693407738e-06</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>7.063209611951867e-06</v>
+        <v>7.030085248605718e-06</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>7.265421556240303e-06</v>
+        <v>7.230357247537843e-06</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>7.46457597440047e-06</v>
+        <v>7.427726359405156e-06</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>7.65846515867166e-06</v>
+        <v>7.620005253408702e-06</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>7.844881401293692e-06</v>
+        <v>7.805006598750052e-06</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>8.021616994505703e-06</v>
+        <v>7.980543064630098e-06</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>8.186464230547479e-06</v>
+        <v>8.144427320250371e-06</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>8.337215401658327e-06</v>
+        <v>8.294472034811936e-06</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>8.471663456545022e-06</v>
+        <v>8.428490526121642e-06</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>8.588288072065673e-06</v>
+        <v>8.544974616065187e-06</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>8.687555803315229e-06</v>
+        <v>8.644379210443285e-06</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>8.770290450213531e-06</v>
+        <v>8.727512181613154e-06</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>8.837315812680639e-06</v>
+        <v>8.795181401932238e-06</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>8.889455690636378e-06</v>
+        <v>8.848194743757743e-06</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>8.92753388400063e-06</v>
+        <v>8.887360079446933e-06</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>8.952374192693373e-06</v>
+        <v>8.913485281357168e-06</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>8.964800416634478e-06</v>
+        <v>8.9273782218457e-06</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>8.965636355743854e-06</v>
+        <v>8.92984677326982e-06</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>8.955705809941419e-06</v>
+        <v>8.921698807986823e-06</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>8.935832579147066e-06</v>
+        <v>8.903742198353994e-06</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>8.906840463280744e-06</v>
+        <v>8.876784816728654e-06</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>8.869553262262304e-06</v>
+        <v>8.841634535468039e-06</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>8.824794776011726e-06</v>
+        <v>8.799099226929511e-06</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>8.773388804448835e-06</v>
+        <v>8.749986763470277e-06</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>8.716159147493577e-06</v>
+        <v>8.695105017447664e-06</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>8.653929605065924e-06</v>
+        <v>8.635261861219025e-06</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>8.587523977085666e-06</v>
+        <v>8.571265167141532e-06</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>8.517766063472773e-06</v>
+        <v>8.503922807572539e-06</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>8.445479664147212e-06</v>
+        <v>8.434042654869389e-06</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>8.371488579028773e-06</v>
+        <v>8.362432581389258e-06</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>8.296616608037421e-06</v>
+        <v>8.289900459489494e-06</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>8.221687551093138e-06</v>
+        <v>8.217254161527454e-06</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>8.147525208115693e-06</v>
+        <v>8.145301559860297e-06</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>8.074953379025132e-06</v>
+        <v>8.074850526845441e-06</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>8.004795863741233e-06</v>
+        <v>8.006708934840055e-06</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>7.937876462183966e-06</v>
+        <v>7.941684656201488e-06</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>7.875018974273304e-06</v>
+        <v>7.880585563287089e-06</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>7.817047199929032e-06</v>
+        <v>7.824219528454033e-06</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>7.764784939071127e-06</v>
+        <v>7.773394424059672e-06</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>7.719055991619536e-06</v>
+        <v>7.728918122461334e-06</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>7.680684157494081e-06</v>
+        <v>7.69159849601623e-06</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>7.650493236614718e-06</v>
+        <v>7.662243417081693e-06</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>7.629307028901371e-06</v>
+        <v>7.641660758015027e-06</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>7.61794933427391e-06</v>
+        <v>7.630658391173486e-06</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>7.617243952652265e-06</v>
+        <v>7.630044188914382e-06</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>7.628014683956344e-06</v>
+        <v>7.640626023595004e-06</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>7.651085312970837e-06</v>
+        <v>7.663211752698219e-06</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>7.686845231834815e-06</v>
+        <v>7.698182326116143e-06</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>7.734113434294715e-06</v>
+        <v>7.744375355010178e-06</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>7.791354156238846e-06</v>
+        <v>7.800279805544994e-06</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>7.857031633555336e-06</v>
+        <v>7.864384643885078e-06</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>7.929610102132531e-06</v>
+        <v>7.935178836195133e-06</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>8.007553797858596e-06</v>
+        <v>8.011151348639689e-06</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>8.089326956621689e-06</v>
+        <v>8.090791147383261e-06</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>8.173393814310177e-06</v>
+        <v>8.172587198590576e-06</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>8.258218606812219e-06</v>
+        <v>8.255028468426152e-06</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>8.342265570015964e-06</v>
+        <v>8.336603923054499e-06</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>8.423998939809788e-06</v>
+        <v>8.415802528640354e-06</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>8.501882952081841e-06</v>
+        <v>8.491113251348223e-06</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>8.574381842720291e-06</v>
+        <v>8.561025057342638e-06</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>8.639959847613488e-06</v>
+        <v>8.624026912788305e-06</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>8.697081202649549e-06</v>
+        <v>8.678607783849705e-06</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>8.744210143716801e-06</v>
+        <v>8.723256636691518e-06</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>8.779810906703411e-06</v>
+        <v>8.756462437478278e-06</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>8.802446024381711e-06</v>
+        <v>8.776812755030588e-06</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>8.812403790533048e-06</v>
+        <v>8.784626287499245e-06</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>8.811444797656214e-06</v>
+        <v>8.781698611629065e-06</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>8.801376841391279e-06</v>
+        <v>8.769872654140838e-06</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>8.78400771737828e-06</v>
+        <v>8.750991341755334e-06</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>8.761145221257269e-06</v>
+        <v>8.726897601193331e-06</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>8.734597148668329e-06</v>
+        <v>8.699434359175641e-06</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>8.706171295251469e-06</v>
+        <v>8.670444542422999e-06</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>8.677675456646785e-06</v>
+        <v>8.641771077656233e-06</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>8.650917428494278e-06</v>
+        <v>8.615256891596069e-06</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>8.627705006434038e-06</v>
+        <v>8.592744910963323e-06</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>8.60984598610612e-06</v>
+        <v>8.576078062478784e-06</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>8.59914816315055e-06</v>
+        <v>8.567099272863202e-06</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>8.597419333207402e-06</v>
+        <v>8.567651468837383e-06</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>8.606458401583831e-06</v>
+        <v>8.579568104574453e-06</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>8.626538148390069e-06</v>
+        <v>8.603056565368741e-06</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>8.65468759923552e-06</v>
+        <v>8.634868053329262e-06</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>8.687520826288689e-06</v>
+        <v>8.671311642437041e-06</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>8.721651901718169e-06</v>
+        <v>8.70869640667319e-06</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>8.753694897692439e-06</v>
+        <v>8.743331420018707e-06</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>8.780263886380088e-06</v>
+        <v>8.771525756454707e-06</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>8.797972939949624e-06</v>
+        <v>8.789588489962209e-06</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>8.803436130569574e-06</v>
+        <v>8.793828694522265e-06</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>8.793449911859274e-06</v>
+        <v>8.780758976125084e-06</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>8.770552716319618e-06</v>
+        <v>8.753299810054477e-06</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>8.744044187822272e-06</v>
+        <v>8.721916972547816e-06</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>8.723611905805174e-06</v>
+        <v>8.697509163831614e-06</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>8.718943449706342e-06</v>
+        <v>8.690975084132476e-06</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>8.739726398963736e-06</v>
+        <v>8.713213433676943e-06</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>8.795648333015388e-06</v>
+        <v>8.775122912691633e-06</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>8.895200240295067e-06</v>
+        <v>8.886273270064796e-06</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>9.026651651278665e-06</v>
+        <v>9.033776009953392e-06</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>9.161428380450295e-06</v>
+        <v>9.186035761040056e-06</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>9.270442281422294e-06</v>
+        <v>9.310886339602853e-06</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>9.324605207807098e-06</v>
+        <v>9.376161561919956e-06</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>9.30368143005715e-06</v>
+        <v>9.359326722825264e-06</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>9.227044610352252e-06</v>
+        <v>9.280942354749524e-06</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>9.125142301081627e-06</v>
+        <v>9.173617444009946e-06</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>9.028422570831148e-06</v>
+        <v>9.069961538548523e-06</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>8.962150417947776e-06</v>
+        <v>8.997072287446147e-06</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>8.928484430847173e-06</v>
+        <v>8.957474993912544e-06</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>8.923146633351001e-06</v>
+        <v>8.946850042717236e-06</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>8.941858776719074e-06</v>
+        <v>8.960877528775807e-06</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>8.98034261221126e-06</v>
+        <v>8.995237547003885e-06</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>9.034319891087393e-06</v>
+        <v>9.045610192317083e-06</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>9.099512364607239e-06</v>
+        <v>9.107675559630929e-06</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>9.171641784030763e-06</v>
+        <v>9.177113743861152e-06</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>9.246429900617676e-06</v>
+        <v>9.24960483992324e-06</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>9.319598465627947e-06</v>
+        <v>9.320828942732927e-06</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>9.386869230321357e-06</v>
+        <v>9.386466147205755e-06</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>9.443963945957731e-06</v>
+        <v>9.442196548257325e-06</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>9.486604363796879e-06</v>
+        <v>9.483700240803214e-06</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>9.510674452637587e-06</v>
+        <v>9.506821285774247e-06</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>9.515975425887639e-06</v>
+        <v>9.511363211082137e-06</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>9.506332090564988e-06</v>
+        <v>9.501196506912892e-06</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>9.485752745811103e-06</v>
+        <v>9.480377133362319e-06</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>9.458245690767479e-06</v>
+        <v>9.45296105052626e-06</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>9.427819224575548e-06</v>
+        <v>9.423004218500479e-06</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>9.398481646376801e-06</v>
+        <v>9.394562597380817e-06</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>9.37424125531274e-06</v>
+        <v>9.37169214726311e-06</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>9.359106350524785e-06</v>
+        <v>9.358448828243127e-06</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>9.35708523115444e-06</v>
+        <v>9.358888600416711e-06</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>9.372186196343162e-06</v>
+        <v>9.377067423879654e-06</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>9.408417545232448e-06</v>
+        <v>9.417041258727801e-06</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>9.469787576963702e-06</v>
+        <v>9.482866065056893e-06</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>9.559528116408167e-06</v>
+        <v>9.577756303694654e-06</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>9.676472280587675e-06</v>
+        <v>9.700159362588576e-06</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>9.817906036359998e-06</v>
+        <v>9.846845915105147e-06</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>9.981113640678798e-06</v>
+        <v>1.001458478151265e-05</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>1.016337935049735e-05</v>
+        <v>1.020014478207898e-05</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>1.036198742276888e-05</v>
+        <v>1.040029473707195e-05</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>1.057422211444714e-05</v>
+        <v>1.061180346675996e-05</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>1.079736768248536e-05</v>
+        <v>1.083143979141083e-05</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>1.102870858530521e-05</v>
+        <v>1.105597274063897e-05</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>1.130189839084098e-05</v>
+        <v>1.131996261167877e-05</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>1.178841738133645e-05</v>
+        <v>1.18011859178188e-05</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>1.269066631207007e-05</v>
+        <v>1.270953717968184e-05</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>1.409966564258368e-05</v>
+        <v>1.413842792409396e-05</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>1.592904421083397e-05</v>
+        <v>1.599575116206088e-05</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>1.807660210033153e-05</v>
+        <v>1.817284598278568e-05</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>2.044013939458208e-05</v>
+        <v>2.056105147546653e-05</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>2.291745617709057e-05</v>
+        <v>2.305170672930085e-05</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>2.540587827808912e-05</v>
+        <v>2.553577153643197e-05</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>2.777249329945248e-05</v>
+        <v>2.788002183696459e-05</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>2.983646454014923e-05</v>
+        <v>2.991290479602464e-05</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>3.141270695296981e-05</v>
+        <v>3.145946984742486e-05</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>3.231613549069831e-05</v>
+        <v>3.234476642497174e-05</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>3.239158910716774e-05</v>
+        <v>3.242260047206803e-05</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>3.177442916433404e-05</v>
+        <v>3.182596554487642e-05</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>3.076338705161099e-05</v>
+        <v>3.084485130962633e-05</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>2.965901476555093e-05</v>
+        <v>2.977099700829956e-05</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>2.876186430270301e-05</v>
+        <v>2.889614188287487e-05</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>2.834448181327635e-05</v>
+        <v>2.848475520767584e-05</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>2.836437565830572e-05</v>
+        <v>2.849454636780079e-05</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>2.858069493171795e-05</v>
+        <v>2.869007754856509e-05</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>2.874949569058503e-05</v>
+        <v>2.883289917074167e-05</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>2.86268339919795e-05</v>
+        <v>2.868456165510396e-05</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>2.797235444844387e-05</v>
+        <v>2.801014242017804e-05</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>2.671028341645729e-05</v>
+        <v>2.673647740984609e-05</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>2.499440163616781e-05</v>
+        <v>2.501601919899153e-05</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>2.299552559421781e-05</v>
+        <v>2.301796387952079e-05</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>2.088447177725067e-05</v>
+        <v>2.091150754334127e-05</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>1.883205667190395e-05</v>
+        <v>1.886584628235457e-05</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>1.70090967648225e-05</v>
+        <v>1.705017618846958e-05</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>1.558373555392554e-05</v>
+        <v>1.56310433103217e-05</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>1.463079405068012e-05</v>
+        <v>1.468247230836755e-05</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>1.410965770367067e-05</v>
+        <v>1.416404320137952e-05</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>1.397255356959005e-05</v>
+        <v>1.40282390652589e-05</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>1.417170870513267e-05</v>
+        <v>1.422754297590856e-05</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>1.465935016699176e-05</v>
+        <v>1.471443800923015e-05</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>1.538770501186198e-05</v>
+        <v>1.544140724112679e-05</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>1.630900029643679e-05</v>
+        <v>1.636093374750037e-05</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>1.737546307740892e-05</v>
+        <v>1.742550060425209e-05</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>1.853932041147412e-05</v>
+        <v>1.85875908872861e-05</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>1.975279935532412e-05</v>
+        <v>1.979968767250261e-05</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>2.096812696565493e-05</v>
+        <v>2.101427403580606e-05</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>2.213753029915922e-05</v>
+        <v>2.218383305309756e-05</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>2.321375521069171e-05</v>
+        <v>2.326135537786079e-05</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>2.41636204756334e-05</v>
+        <v>2.421360021463174e-05</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>2.49693209371789e-05</v>
+        <v>2.502237028178426e-05</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>2.561383150708205e-05</v>
+        <v>2.567023149490923e-05</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>2.608012709709931e-05</v>
+        <v>2.613974976960013e-05</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>2.635118261898526e-05</v>
+        <v>2.641349102144862e-05</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>2.640997298449522e-05</v>
+        <v>2.647402116604703e-05</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>2.623947310538459e-05</v>
+        <v>2.630390611898782e-05</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>2.582268472138861e-05</v>
+        <v>2.588573885928257e-05</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>2.516393941625021e-05</v>
+        <v>2.522362939824972e-05</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>2.432722340736828e-05</v>
+        <v>2.438186590318309e-05</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>2.338687194082253e-05</v>
+        <v>2.343517639196282e-05</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>2.241722026269304e-05</v>
+        <v>2.245828888246946e-05</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>2.149260361905725e-05</v>
+        <v>2.152593139258083e-05</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>2.06873572559959e-05</v>
+        <v>2.071283194017812e-05</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>2.007581641958671e-05</v>
+        <v>2.009371854313947e-05</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>1.97323163559097e-05</v>
+        <v>1.974331921934532e-05</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>1.973119231104392e-05</v>
+        <v>1.973636198667517e-05</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>2.014677953106853e-05</v>
+        <v>2.01475748630086e-05</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>2.105341326206293e-05</v>
+        <v>2.105168586622542e-05</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>2.252542875010474e-05</v>
+        <v>2.25234230142037e-05</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>2.46371612412758e-05</v>
+        <v>2.463751432482569e-05</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>2.74489276086784e-05</v>
+        <v>2.745460489880679e-05</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>3.084563164997775e-05</v>
+        <v>3.085911911460185e-05</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>3.45928009614839e-05</v>
+        <v>3.461555551063865e-05</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>3.845367514594713e-05</v>
+        <v>3.848611409727564e-05</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>4.219149380613117e-05</v>
+        <v>4.223299488488472e-05</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>4.556949654478913e-05</v>
+        <v>4.561839788382713e-05</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>4.834891829723622e-05</v>
+        <v>4.840265158684146e-05</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>5.027266819653651e-05</v>
+        <v>5.032897588240841e-05</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>5.107383407261043e-05</v>
+        <v>5.113142168585852e-05</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>5.341230481919355e-05</v>
+        <v>5.347476611522365e-05</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>6.391806064906932e-05</v>
+        <v>6.399814719987725e-05</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>7.778831921863646e-05</v>
+        <v>7.789094582432483e-05</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>8.893971767621735e-05</v>
+        <v>8.906010650851896e-05</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>9.189436500865255e-05</v>
+        <v>9.20190329008791e-05</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>8.755693879936308e-05</v>
+        <v>8.767410474254352e-05</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>8.065838290214564e-05</v>
+        <v>8.076420720263678e-05</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>7.594118560499979e-05</v>
+        <v>7.603978498838005e-05</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>7.51213508821368e-05</v>
+        <v>7.521958420823684e-05</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>7.495742664894238e-05</v>
+        <v>7.505635455471009e-05</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>7.380283154818111e-05</v>
+        <v>7.390047750853294e-05</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>7.176565042237766e-05</v>
+        <v>7.186003504129982e-05</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>6.900892197276945e-05</v>
+        <v>6.909815801336114e-05</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>6.56956849005991e-05</v>
+        <v>6.577797728507234e-05</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>6.19889779071113e-05</v>
+        <v>6.206262371679105e-05</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>5.805183969354044e-05</v>
+        <v>5.811522816886451e-05</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>5.404196363172454e-05</v>
+        <v>5.409360583170226e-05</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>5.004037649020644e-05</v>
+        <v>5.007933068995204e-05</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>4.607073790252495e-05</v>
+        <v>4.609692790444765e-05</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>4.215532410965255e-05</v>
+        <v>4.216954691944271e-05</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>3.831641135256152e-05</v>
+        <v>3.832033717919066e-05</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>3.457627587221377e-05</v>
+        <v>3.457244812793457e-05</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>3.095719390958484e-05</v>
+        <v>3.09490292099312e-05</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>2.748144170563704e-05</v>
+        <v>2.747322986942396e-05</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>2.417136440274639e-05</v>
+        <v>2.416826446578417e-05</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>2.106884392622317e-05</v>
+        <v>2.107575384211038e-05</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>1.826206452245093e-05</v>
+        <v>1.828094234503437e-05</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>1.584591873021925e-05</v>
+        <v>1.587539450580763e-05</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>1.391529908831632e-05</v>
+        <v>1.395067485568022e-05</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>1.255857260312353e-05</v>
+        <v>1.259202809557329e-05</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>1.175442442467557e-05</v>
+        <v>1.177847453289625e-05</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>1.139049072487524e-05</v>
+        <v>1.140085560205164e-05</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>1.135164926163959e-05</v>
+        <v>1.134734127597649e-05</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>1.152277779288656e-05</v>
+        <v>1.150610152760877e-05</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>1.178875407653418e-05</v>
+        <v>1.176530632988648e-05</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>1.20344558705e-05</v>
+        <v>1.20131256557472e-05</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>1.215528396913682e-05</v>
+        <v>1.214766979146712e-05</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>1.215384561193951e-05</v>
+        <v>1.216831881015548e-05</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>1.209534962286193e-05</v>
+        <v>1.213358774742464e-05</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>1.204578931385069e-05</v>
+        <v>1.210273268511503e-05</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>1.207115799685224e-05</v>
+        <v>1.213500970506696e-05</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>1.22371024054248e-05</v>
+        <v>1.228937124386938e-05</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>1.255604015380261e-05</v>
+        <v>1.257813448944792e-05</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>1.29302988735767e-05</v>
+        <v>1.291716427843804e-05</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>1.325354638738071e-05</v>
+        <v>1.321465133194648e-05</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>1.348853638737858e-05</v>
+        <v>1.343810602411874e-05</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>1.364856711784626e-05</v>
+        <v>1.359843812921879e-05</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>1.374809335619615e-05</v>
+        <v>1.370755046313905e-05</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>1.380156987984063e-05</v>
+        <v>1.377734584177189e-05</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>1.382345146619216e-05</v>
+        <v>1.381972708100986e-05</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>1.382819289266307e-05</v>
+        <v>1.384659699674529e-05</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>1.38301712852132e-05</v>
+        <v>1.386979499491026e-05</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>1.383851307438882e-05</v>
+        <v>1.389687277815394e-05</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>1.38538463791084e-05</v>
+        <v>1.392844235146724e-05</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>1.387602455694619e-05</v>
+        <v>1.396448305188054e-05</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>1.390490096547644e-05</v>
+        <v>1.400497421642414e-05</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>1.394032896227331e-05</v>
+        <v>1.404989518212831e-05</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>1.398216190491114e-05</v>
+        <v>1.409922528602347e-05</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>1.403025315096411e-05</v>
+        <v>1.415294386513989e-05</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>1.408445605800641e-05</v>
+        <v>1.421103025650785e-05</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>1.414462398361238e-05</v>
+        <v>1.427346379715777e-05</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>1.421061028535615e-05</v>
+        <v>1.434022382411987e-05</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>1.428226832081206e-05</v>
+        <v>1.441128967442458e-05</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>1.43594514475543e-05</v>
+        <v>1.448664068510217e-05</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>1.444201302315702e-05</v>
+        <v>1.456625619318289e-05</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>1.452980640519462e-05</v>
+        <v>1.465011553569721e-05</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>1.462268495124125e-05</v>
+        <v>1.473819804967537e-05</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>1.472050201887106e-05</v>
+        <v>1.483048307214762e-05</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>1.482311096565846e-05</v>
+        <v>1.492694994014445e-05</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>1.49303651491776e-05</v>
+        <v>1.50275779906961e-05</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>1.504211792700261e-05</v>
+        <v>1.513234656083279e-05</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>1.515822265670793e-05</v>
+        <v>1.524123498758504e-05</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>1.527853269586759e-05</v>
+        <v>1.535422260798298e-05</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>1.540290140205604e-05</v>
+        <v>1.547128875905712e-05</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>1.553118213284741e-05</v>
+        <v>1.55924127778377e-05</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>1.566322824581593e-05</v>
+        <v>1.571757400135503e-05</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>1.579889309853572e-05</v>
+        <v>1.584675176663933e-05</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>1.593803004858125e-05</v>
+        <v>1.597992541072114e-05</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>1.608061617586849e-05</v>
+        <v>1.611718020179689e-05</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>1.622731758060901e-05</v>
+        <v>1.625919134778119e-05</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>1.637903881256971e-05</v>
+        <v>1.640683821728508e-05</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>1.65366846519354e-05</v>
+        <v>1.656100037620361e-05</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>1.670115987889137e-05</v>
+        <v>1.67225573904323e-05</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>1.687336927362247e-05</v>
+        <v>1.689238882586622e-05</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>1.705421761631352e-05</v>
+        <v>1.707137424840041e-05</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>1.724460968714985e-05</v>
+        <v>1.726039322393044e-05</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>1.744545026631627e-05</v>
+        <v>1.746032531835134e-05</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>1.765764413399757e-05</v>
+        <v>1.767205009755815e-05</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>1.788209607037915e-05</v>
+        <v>1.789644712744647e-05</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>1.811971085564557e-05</v>
+        <v>1.81343959739111e-05</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>1.837139326998227e-05</v>
+        <v>1.838677620284769e-05</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>1.863804809357401e-05</v>
+        <v>1.865446738015125e-05</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>1.892058010660553e-05</v>
+        <v>1.893834907171674e-05</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>1.921989408926232e-05</v>
+        <v>1.923930084343988e-05</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>1.953689482172914e-05</v>
+        <v>1.955820226121565e-05</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>1.987248708419065e-05</v>
+        <v>1.989593289093894e-05</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>2.022757565683245e-05</v>
+        <v>2.025337229850559e-05</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>2.060306531983924e-05</v>
+        <v>2.063140004981052e-05</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>2.099986085339565e-05</v>
+        <v>2.103089571074857e-05</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>2.141886703768737e-05</v>
+        <v>2.145273884721569e-05</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>2.186098865289864e-05</v>
+        <v>2.189780902510632e-05</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>2.232713047921525e-05</v>
+        <v>2.236698581031649e-05</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>2.281819729682179e-05</v>
+        <v>2.286114876874102e-05</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>2.333509388590279e-05</v>
+        <v>2.338117746627466e-05</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>2.387872502664415e-05</v>
+        <v>2.392795146881355e-05</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>2.444999549923044e-05</v>
+        <v>2.450235034225247e-05</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>2.504981008384606e-05</v>
+        <v>2.510525365248606e-05</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>2.56790735606771e-05</v>
+        <v>2.573754096541062e-05</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>2.633869070990802e-05</v>
+        <v>2.640009184692087e-05</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>2.702956631172317e-05</v>
+        <v>2.709378586291136e-05</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>2.77526051463088e-05</v>
+        <v>2.781950257927857e-05</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>2.850871199384856e-05</v>
+        <v>2.85781215619164e-05</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>2.929879163452884e-05</v>
+        <v>2.937052237672144e-05</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>3.012576709484557e-05</v>
+        <v>3.019960383218029e-05</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>3.100209772735056e-05</v>
+        <v>3.107780577031573e-05</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>3.194305678002854e-05</v>
+        <v>3.202038331762555e-05</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>3.296391790871923e-05</v>
+        <v>3.304259200866379e-05</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>3.407995476925871e-05</v>
+        <v>3.41596873779809e-05</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>3.530644101748701e-05</v>
+        <v>3.538692496013123e-05</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>3.665865030924114e-05</v>
+        <v>3.673956028966617e-05</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>3.815185630035766e-05</v>
+        <v>3.823284890113663e-05</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>3.98013326466773e-05</v>
+        <v>3.988204632909765e-05</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>4.162235300403674e-05</v>
+        <v>4.170240810810029e-05</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>4.363019102827209e-05</v>
+        <v>4.3709189772695e-05</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>4.583854425071062e-05</v>
+        <v>4.591607106245485e-05</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>4.823295679818826e-05</v>
+        <v>4.830858419869176e-05</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>5.077469587813349e-05</v>
+        <v>5.084798955905649e-05</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>5.342423320813926e-05</v>
+        <v>5.349475219768288e-05</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>5.614204050578927e-05</v>
+        <v>5.620933716869555e-05</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>5.888858948867679e-05</v>
+        <v>5.895220952622868e-05</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>6.162435187438779e-05</v>
+        <v>6.168383432440915e-05</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>6.430979938050826e-05</v>
+        <v>6.436467661736387e-05</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>6.69054037246314e-05</v>
+        <v>6.695520145922694e-05</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>6.937163662434315e-05</v>
+        <v>6.941587390412525e-05</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>7.166896979722993e-05</v>
+        <v>7.170715900618608e-05</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>7.375787496088424e-05</v>
+        <v>7.378952181954284e-05</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>7.55988238328923e-05</v>
+        <v>7.56234273983227e-05</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>7.715228813084127e-05</v>
+        <v>7.716934079665369e-05</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>7.837873957232229e-05</v>
+        <v>7.838772706866788e-05</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>7.926014603443872e-05</v>
+        <v>7.926061379295162e-05</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>7.987765067255659e-05</v>
+        <v>7.986951000949274e-05</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>8.034097882799361e-05</v>
+        <v>8.032459518581238e-05</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>8.075985850998592e-05</v>
+        <v>8.073605146558679e-05</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>8.124401772777076e-05</v>
+        <v>8.121406099249327e-05</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>8.190318449058431e-05</v>
+        <v>8.186880591020807e-05</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>8.284708680766211e-05</v>
+        <v>8.281046836240688e-05</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>8.418545268824237e-05</v>
+        <v>8.414923049276792e-05</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>8.60279259651868e-05</v>
+        <v>8.599518983173219e-05</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>8.845807474475768e-05</v>
+        <v>8.843223285460822e-05</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>9.149660721002565e-05</v>
+        <v>9.148105988133108e-05</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>9.515494986356908e-05</v>
+        <v>9.51530413810195e-05</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>9.94445292079641e-05</v>
+        <v>9.945954782278981e-05</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>0.0001043767717457987</v>
+        <v>0.0001044119496757704</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>0.0001099631039796496</v>
+        <v>0.0001100216174090782</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>0.0001162149524120912</v>
+        <v>0.0001162999214918279</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>0.0001231437435457149</v>
+        <v>0.0001232582323931513</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>0.0001307528275780988</v>
+        <v>0.0001308997460367392</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>0.0001389470032846317</v>
+        <v>0.0001391279081415004</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>0.0001475652006012684</v>
+        <v>0.0001477794943562795</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>0.0001564451441579654</v>
+        <v>0.0001566900603625428</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>0.0001654245585847034</v>
+        <v>0.0001656951618417809</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>0.0001743411685114391</v>
+        <v>0.0001746303544754602</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>0.0001830326985681294</v>
+        <v>0.0001833311939450476</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>0.0001913368733847547</v>
+        <v>0.0001916332359320331</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>0.0001990914175912715</v>
+        <v>0.0001993720361178833</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>0.0002061354887335755</v>
+        <v>0.0002063849456580493</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>0.0002123286436232719</v>
+        <v>0.0002125348764194645</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>0.0002175456263243346</v>
+        <v>0.0002177037702175769</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>0.0002216615428856645</v>
+        <v>0.0002217740224426009</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>0.0002245514993561483</v>
+        <v>0.0002246280284847367</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>0.0002260906017846769</v>
+        <v>0.0002261481837341887</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>0.0002261539820535908</v>
+        <v>0.0002262169067092403</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>0.0002246586869176105</v>
+        <v>0.0002247541413255041</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>0.0002216489133495801</v>
+        <v>0.0002217936660920145</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>0.0002171928782556623</v>
+        <v>0.000217390763997968</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>0.000211358798550632</v>
+        <v>0.0002116007180421907</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>0.0002042382280098468</v>
+        <v>0.0002045049095645024</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>0.0001960140671493998</v>
+        <v>0.0001962868758215371</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>0.0001868915636698523</v>
+        <v>0.0001871551456251706</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>0.0001770759652717347</v>
+        <v>0.0001773182477872477</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>0.0001667725196556016</v>
+        <v>0.0001669847111196372</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>0.000156186474522</v>
+        <v>0.0001563630644342008</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>0.0001455230775714862</v>
+        <v>0.0001456618365428091</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>0.0001349875765045877</v>
+        <v>0.0001350895562573041</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>0.00012478521902187</v>
+        <v>0.0001248547523895656</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>0.0001150974109706474</v>
+        <v>0.0001151416346764194</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>0.0001059682742682888</v>
+        <v>0.0001059943810307798</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>9.739289375879959e-05</v>
+        <v>9.740715075941351e-05</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>8.936629308599873e-05</v>
+        <v>8.937404074390983e-05</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>8.188349589372874e-05</v>
+        <v>8.188914786588177e-05</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>7.493952582583008e-05</v>
+        <v>7.494656900694022e-05</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>6.85294065261248e-05</v>
+        <v>6.85404010486776e-05</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>6.264816163845383e-05</v>
+        <v>6.266474087270532e-05</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>5.72907722521915e-05</v>
+        <v>5.73136458725376e-05</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>5.244809341837674e-05</v>
+        <v>5.247734471547081e-05</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>4.810346541600073e-05</v>
+        <v>4.81390927926441e-05</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>4.423943086852218e-05</v>
+        <v>4.428140531674807e-05</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>4.083853239941178e-05</v>
+        <v>4.088679750048521e-05</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>3.788331263213852e-05</v>
+        <v>3.793778455655634e-05</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>3.535631419016362e-05</v>
+        <v>3.541688169765456e-05</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>3.324007969695647e-05</v>
+        <v>3.330660413648109e-05</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>3.1517151775985e-05</v>
+        <v>3.158946708573568e-05</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>3.016895054679568e-05</v>
+        <v>3.024685102808504e-05</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>2.915028082155375e-05</v>
+        <v>2.923323124965303e-05</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>2.838888123745519e-05</v>
+        <v>2.847572206166383e-05</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>2.781127774628403e-05</v>
+        <v>2.790021188157731e-05</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>2.734399629982677e-05</v>
+        <v>2.743258912685582e-05</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>2.691356284986795e-05</v>
+        <v>2.699874221495976e-05</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>2.644650334819336e-05</v>
+        <v>2.652455956335078e-05</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>2.58693437465889e-05</v>
+        <v>2.593592958949063e-05</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>2.510860999683893e-05</v>
+        <v>2.515874071083953e-05</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>2.413652795908803e-05</v>
+        <v>2.416585444221619e-05</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>2.312271100424187e-05</v>
+        <v>2.313301898012048e-05</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>2.229005275701071e-05</v>
+        <v>2.229074715054621e-05</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>2.185734380560538e-05</v>
+        <v>2.186524094550217e-05</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>2.177848217560063e-05</v>
+        <v>2.180439557841094e-05</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>2.165323731625454e-05</v>
+        <v>2.168440564850045e-05</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>2.147604771441063e-05</v>
+        <v>2.149843141384459e-05</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>2.141165874359211e-05</v>
+        <v>2.141947468555133e-05</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>2.162522758023731e-05</v>
+        <v>2.162097213251528e-05</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>2.227369341020636e-05</v>
+        <v>2.226785221914213e-05</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>2.332412937259193e-05</v>
+        <v>2.332847234589743e-05</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>2.455326786955465e-05</v>
+        <v>2.457412739571442e-05</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>2.572952837445403e-05</v>
+        <v>2.576750575612241e-05</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>2.662133036065365e-05</v>
+        <v>2.667129581465477e-05</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>2.699721773672125e-05</v>
+        <v>2.704831332174535e-05</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>2.675506390517643e-05</v>
+        <v>2.679374637025608e-05</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>2.616664051238057e-05</v>
+        <v>2.618547832892727e-05</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>2.557089316985548e-05</v>
+        <v>2.557014699247557e-05</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>2.529155535219419e-05</v>
+        <v>2.527886649983135e-05</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>2.53669499710078e-05</v>
+        <v>2.535149570092487e-05</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>2.558178467677165e-05</v>
+        <v>2.556908457258379e-05</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>2.571194186480596e-05</v>
+        <v>2.570367711016874e-05</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>2.557761385574671e-05</v>
+        <v>2.557244770939678e-05</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>2.518656499478108e-05</v>
+        <v>2.51836160115665e-05</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>2.459618453645814e-05</v>
+        <v>2.459594545851769e-05</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>2.38638620512141e-05</v>
+        <v>2.386819981382638e-05</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>2.304698710948566e-05</v>
+        <v>2.305914284106913e-05</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>2.220294703112253e-05</v>
+        <v>2.222753574943868e-05</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>2.138105957126596e-05</v>
+        <v>2.142298090726743e-05</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>2.060444164863328e-05</v>
+        <v>2.066534310720962e-05</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>1.989090182685516e-05</v>
+        <v>1.99684622346016e-05</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>1.925824866956445e-05</v>
+        <v>1.934617817478183e-05</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>1.872429074039366e-05</v>
+        <v>1.881233081308848e-05</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>1.830683660297395e-05</v>
+        <v>1.83807600348583e-05</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>1.802369404564723e-05</v>
+        <v>1.806530519414339e-05</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>1.785652117633563e-05</v>
+        <v>1.785502974238919e-05</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>1.770323093002264e-05</v>
+        <v>1.768028014275247e-05</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>1.755503546118762e-05</v>
+        <v>1.753201181429364e-05</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>1.742221890444225e-05</v>
+        <v>1.741373752040968e-05</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>1.731506539439787e-05</v>
+        <v>1.732897002449728e-05</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>1.724385906566627e-05</v>
+        <v>1.72812220899535e-05</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>1.721654334954589e-05</v>
+        <v>1.727269658209497e-05</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>1.722996392209111e-05</v>
+        <v>1.72993858703556e-05</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>1.727768080212483e-05</v>
+        <v>1.735544361352376e-05</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>1.735325350408965e-05</v>
+        <v>1.743502318812793e-05</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>1.745024154242804e-05</v>
+        <v>1.753227797069646e-05</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>1.756220443158239e-05</v>
+        <v>1.764136133775764e-05</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>1.768270168599541e-05</v>
+        <v>1.775642666584005e-05</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>1.780529282010952e-05</v>
+        <v>1.7871627331472e-05</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>1.792353734836711e-05</v>
+        <v>1.798111671118178e-05</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>1.803099478521091e-05</v>
+        <v>1.807904818149797e-05</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>1.812122464508324e-05</v>
+        <v>1.815957511894882e-05</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>1.818779982471289e-05</v>
+        <v>1.821686336189624e-05</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>1.822686478124353e-05</v>
+        <v>1.824747343352351e-05</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>1.824017626228644e-05</v>
+        <v>1.82531921261375e-05</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>1.823023136274164e-05</v>
+        <v>1.823649565719122e-05</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>1.819952717750913e-05</v>
+        <v>1.819986024413765e-05</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>1.815056080148895e-05</v>
+        <v>1.814576210442987e-05</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>1.808582932958102e-05</v>
+        <v>1.807667745552076e-05</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>1.800782985668539e-05</v>
+        <v>1.799508251486338e-05</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>1.791905947770213e-05</v>
+        <v>1.790345349991081e-05</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>1.782201528753111e-05</v>
+        <v>1.780426662811588e-05</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>1.77191943810725e-05</v>
+        <v>1.769999811693178e-05</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>1.761309385322612e-05</v>
+        <v>1.759312418381132e-05</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>1.750621079889205e-05</v>
+        <v>1.74861210462076e-05</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>1.740104231297041e-05</v>
+        <v>1.73814649215737e-05</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>1.7300085490361e-05</v>
+        <v>1.728163202736244e-05</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>1.720583742596393e-05</v>
+        <v>1.718909858102691e-05</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>1.712079521467927e-05</v>
+        <v>1.710634080002019e-05</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>1.704745595140688e-05</v>
+        <v>1.703583490179515e-05</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>1.698831673104684e-05</v>
+        <v>1.698005710380484e-05</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>1.694579683286895e-05</v>
+        <v>1.694137979739641e-05</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>1.69219566178652e-05</v>
+        <v>1.692169648443179e-05</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>1.69187530340617e-05</v>
+        <v>1.692276268722411e-05</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>1.693814301988232e-05</v>
+        <v>1.694633391527468e-05</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>1.698208351375096e-05</v>
+        <v>1.699416567808479e-05</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>1.705253145409148e-05</v>
+        <v>1.706801348515574e-05</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>1.715144377932765e-05</v>
+        <v>1.716963284598872e-05</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>1.728077742788353e-05</v>
+        <v>1.730077927008519e-05</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>1.744248933818276e-05</v>
+        <v>1.746320826694622e-05</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>1.763853644864949e-05</v>
+        <v>1.765867534607339e-05</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>1.787087569770747e-05</v>
+        <v>1.788893601696786e-05</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>1.814146402378032e-05</v>
+        <v>1.815574578913067e-05</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>1.845225836529239e-05</v>
+        <v>1.846086017206358e-05</v>
       </c>
     </row>
   </sheetData>
